--- a/data/covidquestionsca.xlsx
+++ b/data/covidquestionsca.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\covidQA\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF19CE4-8E32-4DC4-99AA-787EA779477A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C5B8D0-49B6-462C-91BF-7EBB20800BDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="876" windowWidth="21000" windowHeight="10872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -422,36 +422,36 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" activeCellId="1" sqref="A1 B1"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="49.5546875" customWidth="1"/>
-    <col min="2" max="2" width="49.6640625" customWidth="1"/>
+    <col min="2" max="2" width="49.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
